--- a/AtServerEngine/Data/Item/Item.xlsx
+++ b/AtServerEngine/Data/Item/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ath331\Desktop\a\Game\T_Survivor\AtServerEngine\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DAC288-A336-4F91-9CBF-1B265CB1670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910279DF-62D4-46DC-8365-D8D5E28A554F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="5700" windowWidth="28800" windowHeight="15885" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
+    <workbookView xWindow="44475" yWindow="7890" windowWidth="28800" windowHeight="15885" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장착 직업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Estat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Strength</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +206,14 @@
   </si>
   <si>
     <t>Intelligence</t>
+  </si>
+  <si>
+    <t>EStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -682,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4D16BC-F9B1-4F49-9440-843C48817A79}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>22</v>
@@ -721,10 +721,10 @@
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -735,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>23</v>
@@ -747,10 +747,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -799,7 +799,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>2</v>
@@ -822,7 +822,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3">
         <v>5</v>
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3">
         <v>10</v>
@@ -865,7 +865,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3">
         <v>5</v>
@@ -885,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3">
         <v>5</v>
@@ -905,7 +905,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3">
         <v>5</v>
@@ -925,7 +925,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3">
         <v>15</v>
@@ -936,7 +936,7 @@
         <v>1006</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>31</v>
@@ -948,7 +948,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" s="3">
         <v>20</v>
@@ -959,7 +959,7 @@
         <v>1007</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>32</v>
@@ -977,12 +977,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AtServerEngine/Data/Item/Item.xlsx
+++ b/AtServerEngine/Data/Item/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ath331\Desktop\a\Game\T_Survivor\AtServerEngine\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910279DF-62D4-46DC-8365-D8D5E28A554F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBACDE0-18FD-4380-8E13-6ACCC2D4712E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44475" yWindow="7890" windowWidth="28800" windowHeight="15885" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
+    <workbookView xWindow="38490" yWindow="4230" windowWidth="28800" windowHeight="15885" xr2:uid="{63715C51-116E-4948-BF31-B1B087F565B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,30 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubWeapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helmet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gloves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Strength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StatParam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,22 +165,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intelligence</t>
-  </si>
-  <si>
     <t>EStat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ClassType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_SLOT_TYPE_WEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_SLOT_TYPE_SUB_WEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_SLOT_TYPE_HELMAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_SLOT_TYPE_ARMOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_SLOT_TYPE_GLOVES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_SLOT_TYPE_BOOTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_STRENGTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_DEFENSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_INTELLIGENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_MP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +686,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -695,8 +696,8 @@
     <col min="3" max="3" width="18.75" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" style="7" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.75" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
@@ -709,22 +710,22 @@
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -735,22 +736,22 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -790,16 +791,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>2</v>
@@ -813,16 +814,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3">
         <v>5</v>
@@ -836,16 +837,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="3">
         <v>10</v>
@@ -856,16 +857,16 @@
         <v>1002</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="3">
         <v>5</v>
@@ -876,16 +877,16 @@
         <v>1003</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="3">
         <v>5</v>
@@ -896,16 +897,16 @@
         <v>1004</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" s="3">
         <v>5</v>
@@ -916,16 +917,16 @@
         <v>1005</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3">
         <v>15</v>
@@ -936,19 +937,19 @@
         <v>1006</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3">
         <v>20</v>
@@ -959,19 +960,19 @@
         <v>1007</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H12" s="6">
         <v>10</v>
